--- a/tkinter/feedback_data.xlsx
+++ b/tkinter/feedback_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,19 +463,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>deva</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>deva@mail.com</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>full stack developer</t>
+          <t>Javascript,CSS and HTML</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>doss</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>doss@mail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>postgreSQL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
